--- a/demonstration_output/batch_test/0511Wextra_iter6.xlsx
+++ b/demonstration_output/batch_test/0511Wextra_iter6.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" t="str">
         <v>1.0</v>
@@ -521,19 +521,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="D9" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="str">
-        <v>Medium point (up to 6 mtr.)</v>
+        <v>Short point (up to 3 mtr.)</v>
       </c>
       <c r="F9">
-        <v>472</v>
+        <v>256</v>
       </c>
       <c r="G9" t="str">
-        <v>28320.00</v>
+        <v>24832.00</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -550,19 +550,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="D10" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="str">
-        <v>Long point  (up to 10 mtr.)</v>
+        <v>Medium point (up to 6 mtr.)</v>
       </c>
       <c r="F10">
-        <v>662</v>
+        <v>472</v>
       </c>
       <c r="G10" t="str">
-        <v>61566.00</v>
+        <v>5192.00</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -573,25 +573,25 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v/>
+        <v>P. point</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D11" t="str">
-        <v>2.0</v>
+        <v>4</v>
       </c>
       <c r="E11" t="str">
-        <v>Rewiring of 3/5 pin 6 amp. Light plug point with 1.5 sq. mm nominal size  FR PVC insulated unsheathed flexible copper conductor 1.1 kV grade  and 1.5 sq. mm nominal size FR PVC insulated unsheathed flexible copper earth conductor 1.1 kV grade(IS:694)   in recessed ISI marked MMS ( IS:9537 P - III ) virgin material  PVC conduit &amp; it's  ISI marked (IS:3419-1988) accessories, 1.2 mm thick  MS box with earth terminal of required size,  6 A  switch, 3/5 pin 6 A socket, 3.0 mm thick ISI marked (IS:2036-1995) phenolic laminated sheet, Al.alloy / Cadmium plated iron/ brass  screws, cup washers, making connections, testing etc. as required.  For specification of copper  Conductor,  Phenolic Laminated sheet's &amp; Electrical/ Wiring accessories refer Chapter E - 04, E - 05 &amp; E - 07 For additional technical parameters of product / work refer Annexure 'A' attached with this BSR</v>
+        <v>Long point  (up to 10 mtr.)</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>662</v>
       </c>
       <c r="G11" t="str">
-        <v>0.00</v>
+        <v>35086.00</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -602,25 +602,25 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>P. point</v>
+        <v/>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D12" t="str">
-        <v>6</v>
+        <v>2.0</v>
       </c>
       <c r="E12" t="str">
-        <v>On board</v>
+        <v>Rewiring of 3/5 pin 6 amp. Light plug point with 1.5 sq. mm nominal size  FR PVC insulated unsheathed flexible copper conductor 1.1 kV grade  and 1.5 sq. mm nominal size FR PVC insulated unsheathed flexible copper earth conductor 1.1 kV grade(IS:694)   in recessed ISI marked MMS ( IS:9537 P - III ) virgin material  PVC conduit &amp; it's  ISI marked (IS:3419-1988) accessories, 1.2 mm thick  MS box with earth terminal of required size,  6 A  switch, 3/5 pin 6 A socket, 3.0 mm thick ISI marked (IS:2036-1995) phenolic laminated sheet, Al.alloy / Cadmium plated iron/ brass  screws, cup washers, making connections, testing etc. as required.  For specification of copper  Conductor,  Phenolic Laminated sheet's &amp; Electrical/ Wiring accessories refer Chapter E - 04, E - 05 &amp; E - 07 For additional technical parameters of product / work refer Annexure 'A' attached with this BSR</v>
       </c>
       <c r="F12">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="G12" t="str">
-        <v>5440.00</v>
+        <v>0.00</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -631,25 +631,25 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Each</v>
+        <v>P. point</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" t="str">
-        <v>3.0</v>
+        <v>6</v>
       </c>
       <c r="E13" t="str">
-        <v>P &amp; F ISI marked (IS:3854) 6 amp. flush type non modular switch  with CM/L no. printed and made out from industrial grade Polycarbonate or fire resistant ABS material including cutting hole in tile and making connection testing etc. as required. All as per pre approved by Engineer in charge.  For additional technical parameters of products/ work  , refer   Annexure "A" attached with this BSR .</v>
+        <v>On board</v>
       </c>
       <c r="F13">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="G13" t="str">
-        <v>1242.00</v>
+        <v>7616.00</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -660,25 +660,25 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v/>
+        <v>Each</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D14" t="str">
-        <v>8</v>
+        <v>3.0</v>
       </c>
       <c r="E14" t="str">
-        <v>Total</v>
+        <v>P &amp; F ISI marked (IS:3854) 6 amp. flush type non modular switch  with CM/L no. printed and made out from industrial grade Polycarbonate or fire resistant ABS material including cutting hole in tile and making connection testing etc. as required. All as per pre approved by Engineer in charge.  For additional technical parameters of products/ work  , refer   Annexure "A" attached with this BSR .</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G14" t="str">
-        <v>0.00</v>
+        <v>2047.00</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -689,19 +689,19 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>%</v>
+        <v/>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="D15" t="str">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="str">
-        <v xml:space="preserve">Add Tender Premium </v>
+        <v>Total</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -718,19 +718,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v/>
+        <v>%</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="D16" t="str">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="str">
-        <v>Grand Total</v>
+        <v xml:space="preserve">Add Tender Premium </v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -749,35 +749,35 @@
       <c r="A17" t="str">
         <v/>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17" t="str">
+        <v>10</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Grand Total</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <v/>
       </c>
-      <c r="B18" t="str">
-        <v/>
-      </c>
-      <c r="C18" t="str">
-        <v/>
-      </c>
-      <c r="D18" t="str">
-        <v/>
-      </c>
-      <c r="E18" t="str">
-        <v>Grand Total Rs.</v>
-      </c>
-      <c r="F18" t="str">
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <v>96568.00</v>
-      </c>
-      <c r="H18" t="str">
-        <v>96568.00</v>
-      </c>
-      <c r="I18" t="str">
-        <v/>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -793,16 +793,16 @@
         <v/>
       </c>
       <c r="E19" t="str">
-        <v>Tender Premium @ 0%</v>
+        <v>Grand Total Rs.</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>0.00</v>
+        <v>74773.00</v>
       </c>
       <c r="H19" t="str">
-        <v>0.00</v>
+        <v>74773.00</v>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -822,18 +822,47 @@
         <v/>
       </c>
       <c r="E20" t="str">
+        <v>Tender Premium @ 0%</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H20" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
         <v>NET PAYABLE AMOUNT Rs.</v>
       </c>
-      <c r="F20" t="str">
-        <v/>
-      </c>
-      <c r="G20" t="str">
-        <v>96568.00</v>
-      </c>
-      <c r="H20" t="str">
-        <v>96568.00</v>
-      </c>
-      <c r="I20" t="str">
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>74773.00</v>
+      </c>
+      <c r="H21" t="str">
+        <v>74773.00</v>
+      </c>
+      <c r="I21" t="str">
         <v/>
       </c>
     </row>
@@ -842,7 +871,7 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/demonstration_output/batch_test/0511Wextra_iter6.xlsx
+++ b/demonstration_output/batch_test/0511Wextra_iter6.xlsx
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D8" t="str">
         <v>1.0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D9" t="str">
         <v>2</v>
@@ -533,7 +533,7 @@
         <v>256</v>
       </c>
       <c r="G9" t="str">
-        <v>24832.00</v>
+        <v>2048.00</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D10" t="str">
         <v>3</v>
@@ -562,7 +562,7 @@
         <v>472</v>
       </c>
       <c r="G10" t="str">
-        <v>5192.00</v>
+        <v>8024.00</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D11" t="str">
         <v>4</v>
@@ -591,7 +591,7 @@
         <v>662</v>
       </c>
       <c r="G11" t="str">
-        <v>35086.00</v>
+        <v>33100.00</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="D12" t="str">
         <v>2.0</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D13" t="str">
         <v>6</v>
@@ -649,7 +649,7 @@
         <v>136</v>
       </c>
       <c r="G13" t="str">
-        <v>7616.00</v>
+        <v>1496.00</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D14" t="str">
         <v>3.0</v>
@@ -678,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="G14" t="str">
-        <v>2047.00</v>
+        <v>1035.00</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D15" t="str">
         <v>8</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D16" t="str">
         <v>9</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D17" t="str">
         <v>10</v>
@@ -799,10 +799,10 @@
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>74773.00</v>
+        <v>45703.00</v>
       </c>
       <c r="H19" t="str">
-        <v>74773.00</v>
+        <v>45703.00</v>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -857,10 +857,10 @@
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>74773.00</v>
+        <v>45703.00</v>
       </c>
       <c r="H21" t="str">
-        <v>74773.00</v>
+        <v>45703.00</v>
       </c>
       <c r="I21" t="str">
         <v/>
